--- a/Result/coordinates.xlsx
+++ b/Result/coordinates.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\8_Project\Progress\2017.11.16~ Automatically scrape data from a web-based google map database\Result\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="574">
   <si>
     <t>Location</t>
   </si>
@@ -296,25 +301,1464 @@
   </si>
   <si>
     <t>Population: 36,273</t>
+  </si>
+  <si>
+    <t>Liberal, KS</t>
+  </si>
+  <si>
+    <t>Population: 22,952</t>
+  </si>
+  <si>
+    <t>Eagle Pass, TX</t>
+  </si>
+  <si>
+    <t>Population: 54,258</t>
+  </si>
+  <si>
+    <t>Dodge City, KS</t>
+  </si>
+  <si>
+    <t>Population: 33,848</t>
+  </si>
+  <si>
+    <t>Uvalde, TX</t>
+  </si>
+  <si>
+    <t>Population: 26,405</t>
+  </si>
+  <si>
+    <t>Woodward, OK</t>
+  </si>
+  <si>
+    <t>Population: 20,081</t>
+  </si>
+  <si>
+    <t>Kerrville, TX</t>
+  </si>
+  <si>
+    <t>Population: 49,625</t>
+  </si>
+  <si>
+    <t>San Antonio-New Braunfels, TX</t>
+  </si>
+  <si>
+    <t>Population: 2,142,508</t>
+  </si>
+  <si>
+    <t>Weatherford, OK</t>
+  </si>
+  <si>
+    <t>Population: 27,469</t>
+  </si>
+  <si>
+    <t>Fredericksburg, TX</t>
+  </si>
+  <si>
+    <t>Population: 24,837</t>
+  </si>
+  <si>
+    <t>Zapata, TX</t>
+  </si>
+  <si>
+    <t>Population: 14,018</t>
+  </si>
+  <si>
+    <t>Huron, SD</t>
+  </si>
+  <si>
+    <t>Population: 17,398</t>
+  </si>
+  <si>
+    <t>Hastings, NE</t>
+  </si>
+  <si>
+    <t>Population: 31,364</t>
+  </si>
+  <si>
+    <t>McAllen-Edinburg, TX</t>
+  </si>
+  <si>
+    <t>Population: 835,737</t>
+  </si>
+  <si>
+    <t>Mitchell, SD</t>
+  </si>
+  <si>
+    <t>Population: 22,835</t>
+  </si>
+  <si>
+    <t>Hutchinson, KS</t>
+  </si>
+  <si>
+    <t>Population: 64,511</t>
+  </si>
+  <si>
+    <t>Wichita-Arkansas City-Winfield, KS</t>
+  </si>
+  <si>
+    <t>Population: 667,230</t>
+  </si>
+  <si>
+    <t>Oklahoma City-Shawnee, OK</t>
+  </si>
+  <si>
+    <t>Population: 1,322,429</t>
+  </si>
+  <si>
+    <t>Dallas-Fort Worth, TX-OK</t>
+  </si>
+  <si>
+    <t>Population: 6,817,483</t>
+  </si>
+  <si>
+    <t>Stephenville, TX</t>
+  </si>
+  <si>
+    <t>Population: 37,890</t>
+  </si>
+  <si>
+    <t>Columbus, NE</t>
+  </si>
+  <si>
+    <t>Population: 32,237</t>
+  </si>
+  <si>
+    <t>Enid, OK</t>
+  </si>
+  <si>
+    <t>Population: 60,580</t>
+  </si>
+  <si>
+    <t>Austin-Round Rock, TX</t>
+  </si>
+  <si>
+    <t>Population: 1,716,289</t>
+  </si>
+  <si>
+    <t>Yankton, SD</t>
+  </si>
+  <si>
+    <t>Population: 22,438</t>
+  </si>
+  <si>
+    <t>Ponca City, OK</t>
+  </si>
+  <si>
+    <t>Population: 46,562</t>
+  </si>
+  <si>
+    <t>Ardmore, OK</t>
+  </si>
+  <si>
+    <t>Population: 47,557</t>
+  </si>
+  <si>
+    <t>Tulsa-Muskogee-Bartlesville, OK</t>
+  </si>
+  <si>
+    <t>Population: 1,106,431</t>
+  </si>
+  <si>
+    <t>Stillwater, OK</t>
+  </si>
+  <si>
+    <t>Population: 77,350</t>
+  </si>
+  <si>
+    <t>Ada, OK</t>
+  </si>
+  <si>
+    <t>Population: 37,492</t>
+  </si>
+  <si>
+    <t>Omaha-Council Bluffs-Fremont, NE-IA</t>
+  </si>
+  <si>
+    <t>Population: 902,041</t>
+  </si>
+  <si>
+    <t>Houston-The Woodlands, TX</t>
+  </si>
+  <si>
+    <t>Population: 6,114,562</t>
+  </si>
+  <si>
+    <t>Marshall, MN</t>
+  </si>
+  <si>
+    <t>Population: 25,857</t>
+  </si>
+  <si>
+    <t>McAlester, OK</t>
+  </si>
+  <si>
+    <t>Population: 45,837</t>
+  </si>
+  <si>
+    <t>Coffeyville, KS</t>
+  </si>
+  <si>
+    <t>Population: 35,471</t>
+  </si>
+  <si>
+    <t>Palestine, TX</t>
+  </si>
+  <si>
+    <t>Population: 58,458</t>
+  </si>
+  <si>
+    <t>Willmar, MN</t>
+  </si>
+  <si>
+    <t>Population: 42,239</t>
+  </si>
+  <si>
+    <t>Spencer, IA</t>
+  </si>
+  <si>
+    <t>Population: 16,667</t>
+  </si>
+  <si>
+    <t>Storm Lake, IA</t>
+  </si>
+  <si>
+    <t>Population: 20,260</t>
+  </si>
+  <si>
+    <t>Kansas City-Overland Park-Kansas City, MO-KS</t>
+  </si>
+  <si>
+    <t>Population: 2,343,008</t>
+  </si>
+  <si>
+    <t>Parsons, KS</t>
+  </si>
+  <si>
+    <t>Population: 21,607</t>
+  </si>
+  <si>
+    <t>Minneapolis-St. Paul, MN-WI</t>
+  </si>
+  <si>
+    <t>Population: 3,684,928</t>
+  </si>
+  <si>
+    <t>Nacogdoches, TX</t>
+  </si>
+  <si>
+    <t>Population: 64,524</t>
+  </si>
+  <si>
+    <t>Fort Dodge, IA</t>
+  </si>
+  <si>
+    <t>Population: 38,013</t>
+  </si>
+  <si>
+    <t>Des Moines-Ames-West Des Moines, IA</t>
+  </si>
+  <si>
+    <t>Population: 722,323</t>
+  </si>
+  <si>
+    <t>Albert Lea, MN</t>
+  </si>
+  <si>
+    <t>Population: 31,255</t>
+  </si>
+  <si>
+    <t>Mason City, IA</t>
+  </si>
+  <si>
+    <t>Population: 51,749</t>
+  </si>
+  <si>
+    <t>Sedalia, MO</t>
+  </si>
+  <si>
+    <t>Population: 42,201</t>
+  </si>
+  <si>
+    <t>Harrison, AR</t>
+  </si>
+  <si>
+    <t>Population: 45,233</t>
+  </si>
+  <si>
+    <t>Magnolia, AR</t>
+  </si>
+  <si>
+    <t>Population: 24,552</t>
+  </si>
+  <si>
+    <t>Natchitoches, LA</t>
+  </si>
+  <si>
+    <t>Population: 39,566</t>
+  </si>
+  <si>
+    <t>Owatonna, MN</t>
+  </si>
+  <si>
+    <t>Population: 36,576</t>
+  </si>
+  <si>
+    <t>Marshalltown, IA</t>
+  </si>
+  <si>
+    <t>Population: 40,648</t>
+  </si>
+  <si>
+    <t>Little Rock-North Little Rock, AR</t>
+  </si>
+  <si>
+    <t>Population: 877,091</t>
+  </si>
+  <si>
+    <t>Hot Springs-Malvern, AR</t>
+  </si>
+  <si>
+    <t>Population: 128,947</t>
+  </si>
+  <si>
+    <t>Camden, AR</t>
+  </si>
+  <si>
+    <t>Population: 31,488</t>
+  </si>
+  <si>
+    <t>Oskaloosa, IA</t>
+  </si>
+  <si>
+    <t>Population: 22,381</t>
+  </si>
+  <si>
+    <t>Ottumwa, IA</t>
+  </si>
+  <si>
+    <t>Population: 44,378</t>
+  </si>
+  <si>
+    <t>Lebanon, MO</t>
+  </si>
+  <si>
+    <t>Population: 35,571</t>
+  </si>
+  <si>
+    <t>Mountain Home, AR</t>
+  </si>
+  <si>
+    <t>Population: 41,513</t>
+  </si>
+  <si>
+    <t>El Dorado, AR</t>
+  </si>
+  <si>
+    <t>Population: 41,639</t>
+  </si>
+  <si>
+    <t>Fairfield, IA</t>
+  </si>
+  <si>
+    <t>Population: 16,843</t>
+  </si>
+  <si>
+    <t>Fort Leonard Wood, MO</t>
+  </si>
+  <si>
+    <t>Population: 52,274</t>
+  </si>
+  <si>
+    <t>Winona, MN</t>
+  </si>
+  <si>
+    <t>Population: 51,461</t>
+  </si>
+  <si>
+    <t>Rolla, MO</t>
+  </si>
+  <si>
+    <t>Population: 45,156</t>
+  </si>
+  <si>
+    <t>Batesville, AR</t>
+  </si>
+  <si>
+    <t>Population: 36,647</t>
+  </si>
+  <si>
+    <t>Natchez, MS-LA</t>
+  </si>
+  <si>
+    <t>Population: 53,119</t>
+  </si>
+  <si>
+    <t>Baton Rouge, LA</t>
+  </si>
+  <si>
+    <t>Population: 802,484</t>
+  </si>
+  <si>
+    <t>La Crosse-Onalaska, WI-MN</t>
+  </si>
+  <si>
+    <t>Population: 133,665</t>
+  </si>
+  <si>
+    <t>St. Louis-St. Charles-Farmington, MO-IL</t>
+  </si>
+  <si>
+    <t>Population: 2,892,497</t>
+  </si>
+  <si>
+    <t>Platteville, WI</t>
+  </si>
+  <si>
+    <t>Population: 51,208</t>
+  </si>
+  <si>
+    <t>Dubuque, IA</t>
+  </si>
+  <si>
+    <t>Population: 93,653</t>
+  </si>
+  <si>
+    <t>Macomb, IL</t>
+  </si>
+  <si>
+    <t>Population: 32,612</t>
+  </si>
+  <si>
+    <t>Memphis-Forrest City, TN-MS-AR</t>
+  </si>
+  <si>
+    <t>Population: 1,353,087</t>
+  </si>
+  <si>
+    <t>Helena-West Helena, AR</t>
+  </si>
+  <si>
+    <t>Population: 21,757</t>
+  </si>
+  <si>
+    <t>Greenville, MS</t>
+  </si>
+  <si>
+    <t>Population: 51,137</t>
+  </si>
+  <si>
+    <t>Jackson-Vicksburg-Brookhaven, MS</t>
+  </si>
+  <si>
+    <t>Population: 660,368</t>
+  </si>
+  <si>
+    <t>Madison-Janesville-Beloit, WI</t>
+  </si>
+  <si>
+    <t>Population: 827,742</t>
+  </si>
+  <si>
+    <t>Galesburg, IL</t>
+  </si>
+  <si>
+    <t>Population: 52,919</t>
+  </si>
+  <si>
+    <t>Poplar Bluff, MO</t>
+  </si>
+  <si>
+    <t>Population: 42,794</t>
+  </si>
+  <si>
+    <t>Clarksdale, MS</t>
+  </si>
+  <si>
+    <t>Population: 26,151</t>
+  </si>
+  <si>
+    <t>Greenwood, MS</t>
+  </si>
+  <si>
+    <t>Population: 42,914</t>
+  </si>
+  <si>
+    <t>New Orleans-Metairie-Hammond, LA-MS</t>
+  </si>
+  <si>
+    <t>Population: 1,413,965</t>
+  </si>
+  <si>
+    <t>Kennett, MO</t>
+  </si>
+  <si>
+    <t>Population: 31,953</t>
+  </si>
+  <si>
+    <t>Chicago-Naperville, IL-IN-WI</t>
+  </si>
+  <si>
+    <t>Population: 9,840,929</t>
+  </si>
+  <si>
+    <t>Carbondale-Marion, IL</t>
+  </si>
+  <si>
+    <t>Population: 126,575</t>
+  </si>
+  <si>
+    <t>Martin-Union City, TN-KY</t>
+  </si>
+  <si>
+    <t>Population: 73,641</t>
+  </si>
+  <si>
+    <t>Dyersburg, TN</t>
+  </si>
+  <si>
+    <t>Population: 38,335</t>
+  </si>
+  <si>
+    <t>Oxford, MS</t>
+  </si>
+  <si>
+    <t>Population: 47,351</t>
+  </si>
+  <si>
+    <t>Hattiesburg, MS</t>
+  </si>
+  <si>
+    <t>Population: 142,842</t>
+  </si>
+  <si>
+    <t>Decatur, IL</t>
+  </si>
+  <si>
+    <t>Population: 110,768</t>
+  </si>
+  <si>
+    <t>Mount Vernon, IL</t>
+  </si>
+  <si>
+    <t>Population: 38,827</t>
+  </si>
+  <si>
+    <t>Jackson, TN</t>
+  </si>
+  <si>
+    <t>Population: 130,011</t>
+  </si>
+  <si>
+    <t>Tupelo, MS</t>
+  </si>
+  <si>
+    <t>Population: 136,268</t>
+  </si>
+  <si>
+    <t>Starkville, MS</t>
+  </si>
+  <si>
+    <t>Population: 47,671</t>
+  </si>
+  <si>
+    <t>Laurel, MS</t>
+  </si>
+  <si>
+    <t>Population: 84,823</t>
+  </si>
+  <si>
+    <t>Iron Mountain, MI-WI</t>
+  </si>
+  <si>
+    <t>Population: 30,591</t>
+  </si>
+  <si>
+    <t>Milwaukee-Racine-Waukesha, WI</t>
+  </si>
+  <si>
+    <t>Population: 2,025,989</t>
+  </si>
+  <si>
+    <t>Effingham, IL</t>
+  </si>
+  <si>
+    <t>Population: 34,242</t>
+  </si>
+  <si>
+    <t>Sheboygan, WI</t>
+  </si>
+  <si>
+    <t>Population: 115,507</t>
+  </si>
+  <si>
+    <t>Murray, KY</t>
+  </si>
+  <si>
+    <t>Population: 37,191</t>
+  </si>
+  <si>
+    <t>Manitowoc, WI</t>
+  </si>
+  <si>
+    <t>Population: 81,442</t>
+  </si>
+  <si>
+    <t>Danville, IL</t>
+  </si>
+  <si>
+    <t>Population: 81,625</t>
+  </si>
+  <si>
+    <t>Madisonville, KY</t>
+  </si>
+  <si>
+    <t>Population: 46,920</t>
+  </si>
+  <si>
+    <t>Clarksville, TN-KY</t>
+  </si>
+  <si>
+    <t>Population: 260,625</t>
+  </si>
+  <si>
+    <t>Nashville-Davidson-Murfreesboro, TN</t>
+  </si>
+  <si>
+    <t>Population: 1,788,434</t>
+  </si>
+  <si>
+    <t>Florence-Muscle Shoals, AL</t>
+  </si>
+  <si>
+    <t>Population: 147,137</t>
+  </si>
+  <si>
+    <t>Escanaba, MI</t>
+  </si>
+  <si>
+    <t>Population: 37,069</t>
+  </si>
+  <si>
+    <t>Vincennes, IN</t>
+  </si>
+  <si>
+    <t>Population: 38,440</t>
+  </si>
+  <si>
+    <t>Jasper, IN</t>
+  </si>
+  <si>
+    <t>Population: 54,734</t>
+  </si>
+  <si>
+    <t>Owensboro, KY</t>
+  </si>
+  <si>
+    <t>Population: 114,752</t>
+  </si>
+  <si>
+    <t>Birmingham-Hoover-Talladega, AL</t>
+  </si>
+  <si>
+    <t>Population: 1,302,283</t>
+  </si>
+  <si>
+    <t>Indianapolis-Carmel-Muncie, IN</t>
+  </si>
+  <si>
+    <t>Population: 2,266,569</t>
+  </si>
+  <si>
+    <t>Bloomington-Bedford, IN</t>
+  </si>
+  <si>
+    <t>Population: 205,683</t>
+  </si>
+  <si>
+    <t>Ludington, MI</t>
+  </si>
+  <si>
+    <t>Population: 28,705</t>
+  </si>
+  <si>
+    <t>Logansport, IN</t>
+  </si>
+  <si>
+    <t>Population: 38,966</t>
+  </si>
+  <si>
+    <t>Grand Rapids-Wyoming-Muskegon, MI</t>
+  </si>
+  <si>
+    <t>Population: 1,379,237</t>
+  </si>
+  <si>
+    <t>Warsaw, IN</t>
+  </si>
+  <si>
+    <t>Population: 77,358</t>
+  </si>
+  <si>
+    <t>Kokomo-Peru, IN</t>
+  </si>
+  <si>
+    <t>Population: 119,655</t>
+  </si>
+  <si>
+    <t>Louisville/Jefferson County-Elizabethtown-Madison, KY-IN</t>
+  </si>
+  <si>
+    <t>Population: 1,459,911</t>
+  </si>
+  <si>
+    <t>Tullahoma-Manchester, TN</t>
+  </si>
+  <si>
+    <t>Population: 100,210</t>
+  </si>
+  <si>
+    <t>Chattanooga-Cleveland-Dalton, TN-GA-AL</t>
+  </si>
+  <si>
+    <t>Population: 923,460</t>
+  </si>
+  <si>
+    <t>Gadsden, AL</t>
+  </si>
+  <si>
+    <t>Population: 104,430</t>
+  </si>
+  <si>
+    <t>Troy, AL</t>
+  </si>
+  <si>
+    <t>Population: 32,899</t>
+  </si>
+  <si>
+    <t>Panama City, FL</t>
+  </si>
+  <si>
+    <t>Population: 184,715</t>
+  </si>
+  <si>
+    <t>Cadillac, MI</t>
+  </si>
+  <si>
+    <t>Population: 47,584</t>
+  </si>
+  <si>
+    <t>Marion, IN</t>
+  </si>
+  <si>
+    <t>Population: 70,061</t>
+  </si>
+  <si>
+    <t>Cookeville, TN</t>
+  </si>
+  <si>
+    <t>Population: 106,042</t>
+  </si>
+  <si>
+    <t>Anniston-Oxford-Jacksonville, AL</t>
+  </si>
+  <si>
+    <t>Population: 118,572</t>
+  </si>
+  <si>
+    <t>Columbus-Auburn-Opelika, GA-AL</t>
+  </si>
+  <si>
+    <t>Population: 469,327</t>
+  </si>
+  <si>
+    <t>Mount Pleasant-Alma, MI</t>
+  </si>
+  <si>
+    <t>Population: 112,787</t>
+  </si>
+  <si>
+    <t>Coldwater, MI</t>
+  </si>
+  <si>
+    <t>Population: 45,248</t>
+  </si>
+  <si>
+    <t>Richmond-Connersville, IN</t>
+  </si>
+  <si>
+    <t>Population: 93,194</t>
+  </si>
+  <si>
+    <t>Cincinnati-Wilmington-Maysville, OH-KY-IN</t>
+  </si>
+  <si>
+    <t>Population: 2,174,110</t>
+  </si>
+  <si>
+    <t>Crossville, TN</t>
+  </si>
+  <si>
+    <t>Population: 56,053</t>
+  </si>
+  <si>
+    <t>Rome-Summerville, GA</t>
+  </si>
+  <si>
+    <t>Population: 122,332</t>
+  </si>
+  <si>
+    <t>Atlanta--Athens-Clarke County--Sandy Springs, GA</t>
+  </si>
+  <si>
+    <t>Population: 5,910,296</t>
+  </si>
+  <si>
+    <t>Jackson, MI</t>
+  </si>
+  <si>
+    <t>Population: 160,248</t>
+  </si>
+  <si>
+    <t>Hillsdale, MI</t>
+  </si>
+  <si>
+    <t>Population: 46,688</t>
+  </si>
+  <si>
+    <t>Defiance, OH</t>
+  </si>
+  <si>
+    <t>Population: 39,037</t>
+  </si>
+  <si>
+    <t>Dayton-Springfield-Sidney, OH</t>
+  </si>
+  <si>
+    <t>Population: 1,080,044</t>
+  </si>
+  <si>
+    <t>Danville, KY</t>
+  </si>
+  <si>
+    <t>Population: 53,174</t>
+  </si>
+  <si>
+    <t>Somerset, KY</t>
+  </si>
+  <si>
+    <t>Population: 63,063</t>
+  </si>
+  <si>
+    <t>Knoxville-Morristown-Sevierville, TN</t>
+  </si>
+  <si>
+    <t>Population: 1,077,073</t>
+  </si>
+  <si>
+    <t>Albany, GA</t>
+  </si>
+  <si>
+    <t>Population: 157,308</t>
+  </si>
+  <si>
+    <t>Tallahassee-Bainbridge, FL-GA</t>
+  </si>
+  <si>
+    <t>Population: 395,255</t>
+  </si>
+  <si>
+    <t>Detroit-Warren-Ann Arbor, MI</t>
+  </si>
+  <si>
+    <t>Population: 5,318,744</t>
+  </si>
+  <si>
+    <t>Toledo-Port Clinton, OH</t>
+  </si>
+  <si>
+    <t>Population: 651,429</t>
+  </si>
+  <si>
+    <t>London, KY</t>
+  </si>
+  <si>
+    <t>Population: 126,369</t>
+  </si>
+  <si>
+    <t>Americus, GA</t>
+  </si>
+  <si>
+    <t>Population: 37,829</t>
+  </si>
+  <si>
+    <t>Alpena, MI</t>
+  </si>
+  <si>
+    <t>Population: 29,598</t>
+  </si>
+  <si>
+    <t>Findlay-Tiffin, OH</t>
+  </si>
+  <si>
+    <t>Population: 131,527</t>
+  </si>
+  <si>
+    <t>Columbus-Marion-Zanesville, OH</t>
+  </si>
+  <si>
+    <t>Population: 2,308,509</t>
+  </si>
+  <si>
+    <t>Macon-Warner Robins, GA</t>
+  </si>
+  <si>
+    <t>Population: 411,898</t>
+  </si>
+  <si>
+    <t>Thomasville, GA</t>
+  </si>
+  <si>
+    <t>Population: 44,720</t>
+  </si>
+  <si>
+    <t>Cullowhee, NC</t>
+  </si>
+  <si>
+    <t>Population: 40,271</t>
+  </si>
+  <si>
+    <t>Greenville-Spartanburg-Anderson, SC</t>
+  </si>
+  <si>
+    <t>Population: 1,362,073</t>
+  </si>
+  <si>
+    <t>Fitzgerald, GA</t>
+  </si>
+  <si>
+    <t>Population: 17,634</t>
+  </si>
+  <si>
+    <t>Fremont, OH</t>
+  </si>
+  <si>
+    <t>Population: 60,944</t>
+  </si>
+  <si>
+    <t>Mansfield-Ashland-Bucyrus, OH</t>
+  </si>
+  <si>
+    <t>Population: 221,398</t>
+  </si>
+  <si>
+    <t>Johnson City-Kingsport-Bristol, TN-VA</t>
+  </si>
+  <si>
+    <t>Population: 508,260</t>
+  </si>
+  <si>
+    <t>Greeneville, TN</t>
+  </si>
+  <si>
+    <t>Population: 68,831</t>
+  </si>
+  <si>
+    <t>Milledgeville, GA</t>
+  </si>
+  <si>
+    <t>Population: 55,149</t>
+  </si>
+  <si>
+    <t>Dublin, GA</t>
+  </si>
+  <si>
+    <t>Population: 58,414</t>
+  </si>
+  <si>
+    <t>Douglas, GA</t>
+  </si>
+  <si>
+    <t>Population: 42,356</t>
+  </si>
+  <si>
+    <t>Cleveland-Akron-Canton, OH</t>
+  </si>
+  <si>
+    <t>Population: 3,515,646</t>
+  </si>
+  <si>
+    <t>Point Pleasant, WV-OH</t>
+  </si>
+  <si>
+    <t>Population: 58,258</t>
+  </si>
+  <si>
+    <t>Big Stone Gap, VA</t>
+  </si>
+  <si>
+    <t>Population: 61,313</t>
+  </si>
+  <si>
+    <t>Augusta-Richmond County, GA-SC</t>
+  </si>
+  <si>
+    <t>Population: 564,873</t>
+  </si>
+  <si>
+    <t>Vidalia, GA</t>
+  </si>
+  <si>
+    <t>Population: 36,346</t>
+  </si>
+  <si>
+    <t>Waycross, GA</t>
+  </si>
+  <si>
+    <t>Population: 55,070</t>
+  </si>
+  <si>
+    <t>Jacksonville-St. Marys-Palatka, FL-GA</t>
+  </si>
+  <si>
+    <t>Population: 1,470,473</t>
+  </si>
+  <si>
+    <t>Tampa-St. Petersburg-Clearwater, FL</t>
+  </si>
+  <si>
+    <t>Population: 2,783,243</t>
+  </si>
+  <si>
+    <t>North Port-Sarasota, FL</t>
+  </si>
+  <si>
+    <t>Population: 897,121</t>
+  </si>
+  <si>
+    <t>Wooster, OH</t>
+  </si>
+  <si>
+    <t>Population: 114,520</t>
+  </si>
+  <si>
+    <t>Coshocton, OH</t>
+  </si>
+  <si>
+    <t>Population: 36,901</t>
+  </si>
+  <si>
+    <t>Athens, OH</t>
+  </si>
+  <si>
+    <t>Population: 64,757</t>
+  </si>
+  <si>
+    <t>Forest City, NC</t>
+  </si>
+  <si>
+    <t>Population: 67,810</t>
+  </si>
+  <si>
+    <t>Jesup, GA</t>
+  </si>
+  <si>
+    <t>Population: 30,099</t>
+  </si>
+  <si>
+    <t>Orlando-Deltona-Daytona Beach, FL</t>
+  </si>
+  <si>
+    <t>Population: 2,818,120</t>
+  </si>
+  <si>
+    <t>Lakeland-Winter Haven, FL</t>
+  </si>
+  <si>
+    <t>Population: 602,095</t>
+  </si>
+  <si>
+    <t>Cape Coral-Fort Myers-Naples, FL</t>
+  </si>
+  <si>
+    <t>Population: 940,274</t>
+  </si>
+  <si>
+    <t>Parkersburg-Marietta-Vienna, WV-OH</t>
+  </si>
+  <si>
+    <t>Population: 154,451</t>
+  </si>
+  <si>
+    <t>Beckley, WV</t>
+  </si>
+  <si>
+    <t>Population: 124,898</t>
+  </si>
+  <si>
+    <t>Bluefield, WV-VA</t>
+  </si>
+  <si>
+    <t>Population: 107,342</t>
+  </si>
+  <si>
+    <t>Boone, NC</t>
+  </si>
+  <si>
+    <t>Population: 51,079</t>
+  </si>
+  <si>
+    <t>Charlotte-Concord, NC-SC</t>
+  </si>
+  <si>
+    <t>Population: 2,375,675</t>
+  </si>
+  <si>
+    <t>Columbia-Orangeburg-Newberry, SC</t>
+  </si>
+  <si>
+    <t>Population: 897,607</t>
+  </si>
+  <si>
+    <t>Savannah-Hinesville-Statesboro, GA</t>
+  </si>
+  <si>
+    <t>Population: 495,745</t>
+  </si>
+  <si>
+    <t>Brunswick, GA</t>
+  </si>
+  <si>
+    <t>Population: 112,370</t>
+  </si>
+  <si>
+    <t>Sebring, FL</t>
+  </si>
+  <si>
+    <t>Population: 98,786</t>
+  </si>
+  <si>
+    <t>Clewiston, FL</t>
+  </si>
+  <si>
+    <t>Population: 39,140</t>
+  </si>
+  <si>
+    <t>Wheeling, WV-OH</t>
+  </si>
+  <si>
+    <t>Population: 147,950</t>
+  </si>
+  <si>
+    <t>North Wilkesboro, NC</t>
+  </si>
+  <si>
+    <t>Population: 69,340</t>
+  </si>
+  <si>
+    <t>Hilton Head Island-Bluffton-Beaufort, SC</t>
+  </si>
+  <si>
+    <t>Population: 187,010</t>
+  </si>
+  <si>
+    <t>Miami-Fort Lauderdale-Port St. Lucie, FL</t>
+  </si>
+  <si>
+    <t>Population: 6,166,766</t>
+  </si>
+  <si>
+    <t>Key West, FL</t>
+  </si>
+  <si>
+    <t>Population: 73,090</t>
+  </si>
+  <si>
+    <t>Youngstown-Warren-East Liverpool, OH-PA</t>
+  </si>
+  <si>
+    <t>Population: 673,614</t>
+  </si>
+  <si>
+    <t>Pittsburgh-New Castle-Weirton, PA-OH-WV</t>
+  </si>
+  <si>
+    <t>Population: 2,660,727</t>
+  </si>
+  <si>
+    <t>Morgantown-Fairmont, WV</t>
+  </si>
+  <si>
+    <t>Population: 186,127</t>
+  </si>
+  <si>
+    <t>Clarksburg, WV</t>
+  </si>
+  <si>
+    <t>Population: 94,196</t>
+  </si>
+  <si>
+    <t>Greensboro-Winston-Salem-High Point, NC</t>
+  </si>
+  <si>
+    <t>Population: 1,589,200</t>
+  </si>
+  <si>
+    <t>Raleigh-Durham-Chapel Hill, NC</t>
+  </si>
+  <si>
+    <t>Population: 1,912,729</t>
+  </si>
+  <si>
+    <t>Sumter, SC</t>
+  </si>
+  <si>
+    <t>Population: 107,456</t>
+  </si>
+  <si>
+    <t>Charleston-North Charleston, SC</t>
+  </si>
+  <si>
+    <t>Population: 664,607</t>
+  </si>
+  <si>
+    <t>Palm Bay-Melbourne-Titusville, FL</t>
+  </si>
+  <si>
+    <t>Population: 543,376</t>
+  </si>
+  <si>
+    <t>Elkins, WV</t>
+  </si>
+  <si>
+    <t>Population: 29,405</t>
+  </si>
+  <si>
+    <t>Rockingham, NC</t>
+  </si>
+  <si>
+    <t>Population: 46,639</t>
+  </si>
+  <si>
+    <t>Bennettsville, SC</t>
+  </si>
+  <si>
+    <t>Population: 28,933</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>Population: 0</t>
+  </si>
+  <si>
+    <t>Oil City, PA</t>
+  </si>
+  <si>
+    <t>Population: 54,984</t>
+  </si>
+  <si>
+    <t>Altoona, PA</t>
+  </si>
+  <si>
+    <t>Population: 127,089</t>
+  </si>
+  <si>
+    <t>Martinsville, VA</t>
+  </si>
+  <si>
+    <t>Population: 67,972</t>
+  </si>
+  <si>
+    <t>Florence, SC</t>
+  </si>
+  <si>
+    <t>Population: 205,566</t>
+  </si>
+  <si>
+    <t>Jamestown-Dunkirk-Fredonia, NY</t>
+  </si>
+  <si>
+    <t>Population: 134,905</t>
+  </si>
+  <si>
+    <t>Bradford, PA</t>
+  </si>
+  <si>
+    <t>Population: 43,450</t>
+  </si>
+  <si>
+    <t>Harrisburg-York-Lebanon, PA</t>
+  </si>
+  <si>
+    <t>Population: 1,219,422</t>
+  </si>
+  <si>
+    <t>Danville, VA</t>
+  </si>
+  <si>
+    <t>Population: 106,561</t>
+  </si>
+  <si>
+    <t>Buffalo-Cheektowaga, NY</t>
+  </si>
+  <si>
+    <t>Population: 1,215,826</t>
+  </si>
+  <si>
+    <t>Washington-Baltimore-Arlington, DC-MD-VA-WV-PA</t>
+  </si>
+  <si>
+    <t>Population: 9,051,961</t>
+  </si>
+  <si>
+    <t>Cumberland, MD-WV</t>
+  </si>
+  <si>
+    <t>Population: 103,299</t>
+  </si>
+  <si>
+    <t>Rochester-Batavia-Seneca Falls, NY</t>
+  </si>
+  <si>
+    <t>Population: 1,175,001</t>
+  </si>
+  <si>
+    <t>Syracuse-Auburn, NY</t>
+  </si>
+  <si>
+    <t>Population: 699,620</t>
+  </si>
+  <si>
+    <t>Philadelphia-Reading-Camden, PA-NJ-DE-MD</t>
+  </si>
+  <si>
+    <t>Population: 7,067,807</t>
+  </si>
+  <si>
+    <t>Goldsboro, NC</t>
+  </si>
+  <si>
+    <t>Population: 122,623</t>
+  </si>
+  <si>
+    <t>Huntingdon, PA</t>
+  </si>
+  <si>
+    <t>Population: 45,913</t>
+  </si>
+  <si>
+    <t>Richmond, VA</t>
+  </si>
+  <si>
+    <t>Population: 1,208,101</t>
+  </si>
+  <si>
+    <t>Wilmington, NC</t>
+  </si>
+  <si>
+    <t>Population: 254,884</t>
+  </si>
+  <si>
+    <t>Oneonta, NY</t>
+  </si>
+  <si>
+    <t>Population: 62,259</t>
+  </si>
+  <si>
+    <t>Lewistown, PA</t>
+  </si>
+  <si>
+    <t>Population: 46,682</t>
+  </si>
+  <si>
+    <t>Virginia Beach-Norfolk, VA-NC</t>
+  </si>
+  <si>
+    <t>Population: 1,779,243</t>
+  </si>
+  <si>
+    <t>Kinston, NC</t>
+  </si>
+  <si>
+    <t>Population: 59,495</t>
+  </si>
+  <si>
+    <t>Pittsfield, MA</t>
+  </si>
+  <si>
+    <t>Population: 131,219</t>
+  </si>
+  <si>
+    <t>Boston-Worcester-Providence, MA-RI-NH-CT</t>
+  </si>
+  <si>
+    <t>Population: 7,893,376</t>
+  </si>
+  <si>
+    <t>Springfield-Greenfield Town, MA</t>
+  </si>
+  <si>
+    <t>Population: 692,942</t>
+  </si>
+  <si>
+    <t>Hartford-West Hartford, CT</t>
+  </si>
+  <si>
+    <t>Population: 1,486,436</t>
+  </si>
+  <si>
+    <t>New York-Newark, NY-NJ-CT-PA</t>
+  </si>
+  <si>
+    <t>Population: 23,076,664</t>
+  </si>
+  <si>
+    <t>Albany-Schenectady, NY</t>
+  </si>
+  <si>
+    <t>Population: 1,168,485</t>
+  </si>
+  <si>
+    <t>Sayre, PA</t>
+  </si>
+  <si>
+    <t>Population: 62,622</t>
+  </si>
+  <si>
+    <t>Scranton-Wilkes-Barre-Hazleton, PA</t>
+  </si>
+  <si>
+    <t>Population: 563,631</t>
+  </si>
+  <si>
+    <t>Lancaster, PA</t>
+  </si>
+  <si>
+    <t>Population: 519,445</t>
+  </si>
+  <si>
+    <t>Binghamton, NY</t>
+  </si>
+  <si>
+    <t>Population: 251,725</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -330,15 +1774,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -626,20 +2079,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D287"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D287"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -653,637 +2105,4011 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>110</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>110</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>110</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>120</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>120</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>120</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>120</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>120</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>130</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>130</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>140</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>310</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>140</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>330</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>160</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>320</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>170</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>170</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>180</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>190</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>380</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
       <c r="B19" t="s">
         <v>39</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>210</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
       <c r="B20" t="s">
         <v>41</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>210</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
       <c r="B21" t="s">
         <v>43</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>210</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>410</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>44</v>
       </c>
       <c r="B22" t="s">
         <v>45</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>220</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>440</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>46</v>
       </c>
       <c r="B23" t="s">
         <v>47</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>240</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>48</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>250</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
       <c r="B25" t="s">
         <v>51</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>250</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>52</v>
       </c>
       <c r="B26" t="s">
         <v>53</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>250</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>320</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>54</v>
       </c>
       <c r="B27" t="s">
         <v>55</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>270</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>480</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>56</v>
       </c>
       <c r="B28" t="s">
         <v>57</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>330</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>500</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>58</v>
       </c>
       <c r="B29" t="s">
         <v>59</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>350</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>230</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>60</v>
       </c>
       <c r="B30" t="s">
         <v>61</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>360</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>400</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>62</v>
       </c>
       <c r="B31" t="s">
         <v>63</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>360</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>420</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>64</v>
       </c>
       <c r="B32" t="s">
         <v>65</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>360</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>460</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>66</v>
       </c>
       <c r="B33" t="s">
         <v>67</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>360</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>510</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>68</v>
       </c>
       <c r="B34" t="s">
         <v>69</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>380</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>70</v>
       </c>
       <c r="B35" t="s">
         <v>71</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>410</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>450</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>72</v>
       </c>
       <c r="B36" t="s">
         <v>73</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>420</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>380</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>74</v>
       </c>
       <c r="B37" t="s">
         <v>75</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>430</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>480</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>76</v>
       </c>
       <c r="B38" t="s">
         <v>77</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>460</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>78</v>
       </c>
       <c r="B39" t="s">
         <v>79</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>460</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>440</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>80</v>
       </c>
       <c r="B40" t="s">
         <v>81</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>500</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>500</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>82</v>
       </c>
       <c r="B41" t="s">
         <v>83</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>520</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>310</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>84</v>
       </c>
       <c r="B42" t="s">
         <v>85</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>540</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>320</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>86</v>
       </c>
       <c r="B43" t="s">
         <v>87</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>570</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>280</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>88</v>
       </c>
       <c r="B44" t="s">
         <v>89</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>600</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>430</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>90</v>
       </c>
       <c r="B45" t="s">
         <v>91</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>600</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>92</v>
       </c>
       <c r="B46" t="s">
         <v>93</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>620</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>450</v>
       </c>
     </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47">
+        <v>640</v>
+      </c>
+      <c r="D47">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48">
+        <v>650</v>
+      </c>
+      <c r="D48">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49">
+        <v>660</v>
+      </c>
+      <c r="D49">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50">
+        <v>660</v>
+      </c>
+      <c r="D50">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51">
+        <v>670</v>
+      </c>
+      <c r="D51">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52">
+        <v>670</v>
+      </c>
+      <c r="D52">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53">
+        <v>670</v>
+      </c>
+      <c r="D53">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54">
+        <v>680</v>
+      </c>
+      <c r="D54">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55">
+        <v>680</v>
+      </c>
+      <c r="D55">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56">
+        <v>680</v>
+      </c>
+      <c r="D56">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57">
+        <v>690</v>
+      </c>
+      <c r="D57">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58">
+        <v>690</v>
+      </c>
+      <c r="D58">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59">
+        <v>690</v>
+      </c>
+      <c r="D59">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60">
+        <v>700</v>
+      </c>
+      <c r="D60">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61">
+        <v>700</v>
+      </c>
+      <c r="D61">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62">
+        <v>700</v>
+      </c>
+      <c r="D62">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63">
+        <v>700</v>
+      </c>
+      <c r="D63">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64">
+        <v>700</v>
+      </c>
+      <c r="D64">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65">
+        <v>700</v>
+      </c>
+      <c r="D65">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66">
+        <v>710</v>
+      </c>
+      <c r="D66">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67">
+        <v>710</v>
+      </c>
+      <c r="D67">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68">
+        <v>710</v>
+      </c>
+      <c r="D68">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69">
+        <v>720</v>
+      </c>
+      <c r="D69">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70">
+        <v>720</v>
+      </c>
+      <c r="D70">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71">
+        <v>720</v>
+      </c>
+      <c r="D71">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72">
+        <v>730</v>
+      </c>
+      <c r="D72">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73">
+        <v>730</v>
+      </c>
+      <c r="D73">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74">
+        <v>730</v>
+      </c>
+      <c r="D74">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75">
+        <v>740</v>
+      </c>
+      <c r="D75">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76">
+        <v>740</v>
+      </c>
+      <c r="D76">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77">
+        <v>750</v>
+      </c>
+      <c r="D77">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78">
+        <v>750</v>
+      </c>
+      <c r="D78">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79">
+        <v>760</v>
+      </c>
+      <c r="D79">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80">
+        <v>760</v>
+      </c>
+      <c r="D80">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>162</v>
+      </c>
+      <c r="B81" t="s">
+        <v>163</v>
+      </c>
+      <c r="C81">
+        <v>770</v>
+      </c>
+      <c r="D81">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>164</v>
+      </c>
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82">
+        <v>770</v>
+      </c>
+      <c r="D82">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>166</v>
+      </c>
+      <c r="B83" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83">
+        <v>770</v>
+      </c>
+      <c r="D83">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84">
+        <v>770</v>
+      </c>
+      <c r="D84">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>170</v>
+      </c>
+      <c r="B85" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85">
+        <v>770</v>
+      </c>
+      <c r="D85">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86">
+        <v>780</v>
+      </c>
+      <c r="D86">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87">
+        <v>780</v>
+      </c>
+      <c r="D87">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>176</v>
+      </c>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88">
+        <v>790</v>
+      </c>
+      <c r="D88">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>178</v>
+      </c>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
+      <c r="C89">
+        <v>790</v>
+      </c>
+      <c r="D89">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>180</v>
+      </c>
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90">
+        <v>810</v>
+      </c>
+      <c r="D90">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>182</v>
+      </c>
+      <c r="B91" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91">
+        <v>810</v>
+      </c>
+      <c r="D91">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>184</v>
+      </c>
+      <c r="B92" t="s">
+        <v>185</v>
+      </c>
+      <c r="C92">
+        <v>810</v>
+      </c>
+      <c r="D92">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>186</v>
+      </c>
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93">
+        <v>810</v>
+      </c>
+      <c r="D93">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>188</v>
+      </c>
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94">
+        <v>810</v>
+      </c>
+      <c r="D94">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>190</v>
+      </c>
+      <c r="B95" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95">
+        <v>810</v>
+      </c>
+      <c r="D95">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>192</v>
+      </c>
+      <c r="B96" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96">
+        <v>820</v>
+      </c>
+      <c r="D96">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>194</v>
+      </c>
+      <c r="B97" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97">
+        <v>820</v>
+      </c>
+      <c r="D97">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>196</v>
+      </c>
+      <c r="B98" t="s">
+        <v>197</v>
+      </c>
+      <c r="C98">
+        <v>820</v>
+      </c>
+      <c r="D98">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>198</v>
+      </c>
+      <c r="B99" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99">
+        <v>820</v>
+      </c>
+      <c r="D99">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>200</v>
+      </c>
+      <c r="B100" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100">
+        <v>820</v>
+      </c>
+      <c r="D100">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101">
+        <v>830</v>
+      </c>
+      <c r="D101">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>204</v>
+      </c>
+      <c r="B102" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102">
+        <v>830</v>
+      </c>
+      <c r="D102">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>206</v>
+      </c>
+      <c r="B103" t="s">
+        <v>207</v>
+      </c>
+      <c r="C103">
+        <v>830</v>
+      </c>
+      <c r="D103">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>208</v>
+      </c>
+      <c r="B104" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104">
+        <v>830</v>
+      </c>
+      <c r="D104">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>210</v>
+      </c>
+      <c r="B105" t="s">
+        <v>211</v>
+      </c>
+      <c r="C105">
+        <v>830</v>
+      </c>
+      <c r="D105">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>212</v>
+      </c>
+      <c r="B106" t="s">
+        <v>213</v>
+      </c>
+      <c r="C106">
+        <v>840</v>
+      </c>
+      <c r="D106">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>214</v>
+      </c>
+      <c r="B107" t="s">
+        <v>215</v>
+      </c>
+      <c r="C107">
+        <v>840</v>
+      </c>
+      <c r="D107">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>216</v>
+      </c>
+      <c r="B108" t="s">
+        <v>217</v>
+      </c>
+      <c r="C108">
+        <v>850</v>
+      </c>
+      <c r="D108">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>218</v>
+      </c>
+      <c r="B109" t="s">
+        <v>219</v>
+      </c>
+      <c r="C109">
+        <v>850</v>
+      </c>
+      <c r="D109">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>220</v>
+      </c>
+      <c r="B110" t="s">
+        <v>221</v>
+      </c>
+      <c r="C110">
+        <v>850</v>
+      </c>
+      <c r="D110">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>222</v>
+      </c>
+      <c r="B111" t="s">
+        <v>223</v>
+      </c>
+      <c r="C111">
+        <v>850</v>
+      </c>
+      <c r="D111">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>224</v>
+      </c>
+      <c r="B112" t="s">
+        <v>225</v>
+      </c>
+      <c r="C112">
+        <v>850</v>
+      </c>
+      <c r="D112">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>226</v>
+      </c>
+      <c r="B113" t="s">
+        <v>227</v>
+      </c>
+      <c r="C113">
+        <v>860</v>
+      </c>
+      <c r="D113">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>228</v>
+      </c>
+      <c r="B114" t="s">
+        <v>229</v>
+      </c>
+      <c r="C114">
+        <v>860</v>
+      </c>
+      <c r="D114">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>230</v>
+      </c>
+      <c r="B115" t="s">
+        <v>231</v>
+      </c>
+      <c r="C115">
+        <v>870</v>
+      </c>
+      <c r="D115">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>232</v>
+      </c>
+      <c r="B116" t="s">
+        <v>233</v>
+      </c>
+      <c r="C116">
+        <v>870</v>
+      </c>
+      <c r="D116">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>234</v>
+      </c>
+      <c r="B117" t="s">
+        <v>235</v>
+      </c>
+      <c r="C117">
+        <v>870</v>
+      </c>
+      <c r="D117">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>236</v>
+      </c>
+      <c r="B118" t="s">
+        <v>237</v>
+      </c>
+      <c r="C118">
+        <v>870</v>
+      </c>
+      <c r="D118">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>238</v>
+      </c>
+      <c r="B119" t="s">
+        <v>239</v>
+      </c>
+      <c r="C119">
+        <v>870</v>
+      </c>
+      <c r="D119">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>240</v>
+      </c>
+      <c r="B120" t="s">
+        <v>241</v>
+      </c>
+      <c r="C120">
+        <v>870</v>
+      </c>
+      <c r="D120">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>242</v>
+      </c>
+      <c r="B121" t="s">
+        <v>243</v>
+      </c>
+      <c r="C121">
+        <v>870</v>
+      </c>
+      <c r="D121">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>244</v>
+      </c>
+      <c r="B122" t="s">
+        <v>245</v>
+      </c>
+      <c r="C122">
+        <v>880</v>
+      </c>
+      <c r="D122">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>246</v>
+      </c>
+      <c r="B123" t="s">
+        <v>247</v>
+      </c>
+      <c r="C123">
+        <v>880</v>
+      </c>
+      <c r="D123">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>248</v>
+      </c>
+      <c r="B124" t="s">
+        <v>249</v>
+      </c>
+      <c r="C124">
+        <v>880</v>
+      </c>
+      <c r="D124">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>250</v>
+      </c>
+      <c r="B125" t="s">
+        <v>251</v>
+      </c>
+      <c r="C125">
+        <v>880</v>
+      </c>
+      <c r="D125">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>252</v>
+      </c>
+      <c r="B126" t="s">
+        <v>253</v>
+      </c>
+      <c r="C126">
+        <v>880</v>
+      </c>
+      <c r="D126">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>254</v>
+      </c>
+      <c r="B127" t="s">
+        <v>255</v>
+      </c>
+      <c r="C127">
+        <v>880</v>
+      </c>
+      <c r="D127">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>256</v>
+      </c>
+      <c r="B128" t="s">
+        <v>257</v>
+      </c>
+      <c r="C128">
+        <v>890</v>
+      </c>
+      <c r="D128">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>258</v>
+      </c>
+      <c r="B129" t="s">
+        <v>259</v>
+      </c>
+      <c r="C129">
+        <v>900</v>
+      </c>
+      <c r="D129">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>260</v>
+      </c>
+      <c r="B130" t="s">
+        <v>261</v>
+      </c>
+      <c r="C130">
+        <v>900</v>
+      </c>
+      <c r="D130">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>262</v>
+      </c>
+      <c r="B131" t="s">
+        <v>263</v>
+      </c>
+      <c r="C131">
+        <v>900</v>
+      </c>
+      <c r="D131">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>264</v>
+      </c>
+      <c r="B132" t="s">
+        <v>265</v>
+      </c>
+      <c r="C132">
+        <v>900</v>
+      </c>
+      <c r="D132">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>266</v>
+      </c>
+      <c r="B133" t="s">
+        <v>267</v>
+      </c>
+      <c r="C133">
+        <v>900</v>
+      </c>
+      <c r="D133">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>268</v>
+      </c>
+      <c r="B134" t="s">
+        <v>269</v>
+      </c>
+      <c r="C134">
+        <v>900</v>
+      </c>
+      <c r="D134">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>270</v>
+      </c>
+      <c r="B135" t="s">
+        <v>271</v>
+      </c>
+      <c r="C135">
+        <v>910</v>
+      </c>
+      <c r="D135">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>272</v>
+      </c>
+      <c r="B136" t="s">
+        <v>273</v>
+      </c>
+      <c r="C136">
+        <v>910</v>
+      </c>
+      <c r="D136">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>274</v>
+      </c>
+      <c r="B137" t="s">
+        <v>275</v>
+      </c>
+      <c r="C137">
+        <v>910</v>
+      </c>
+      <c r="D137">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>276</v>
+      </c>
+      <c r="B138" t="s">
+        <v>277</v>
+      </c>
+      <c r="C138">
+        <v>910</v>
+      </c>
+      <c r="D138">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>278</v>
+      </c>
+      <c r="B139" t="s">
+        <v>279</v>
+      </c>
+      <c r="C139">
+        <v>910</v>
+      </c>
+      <c r="D139">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>280</v>
+      </c>
+      <c r="B140" t="s">
+        <v>281</v>
+      </c>
+      <c r="C140">
+        <v>910</v>
+      </c>
+      <c r="D140">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>282</v>
+      </c>
+      <c r="B141" t="s">
+        <v>283</v>
+      </c>
+      <c r="C141">
+        <v>920</v>
+      </c>
+      <c r="D141">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>284</v>
+      </c>
+      <c r="B142" t="s">
+        <v>285</v>
+      </c>
+      <c r="C142">
+        <v>920</v>
+      </c>
+      <c r="D142">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>286</v>
+      </c>
+      <c r="B143" t="s">
+        <v>287</v>
+      </c>
+      <c r="C143">
+        <v>920</v>
+      </c>
+      <c r="D143">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>288</v>
+      </c>
+      <c r="B144" t="s">
+        <v>289</v>
+      </c>
+      <c r="C144">
+        <v>930</v>
+      </c>
+      <c r="D144">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>290</v>
+      </c>
+      <c r="B145" t="s">
+        <v>291</v>
+      </c>
+      <c r="C145">
+        <v>930</v>
+      </c>
+      <c r="D145">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>292</v>
+      </c>
+      <c r="B146" t="s">
+        <v>293</v>
+      </c>
+      <c r="C146">
+        <v>940</v>
+      </c>
+      <c r="D146">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>294</v>
+      </c>
+      <c r="B147" t="s">
+        <v>295</v>
+      </c>
+      <c r="C147">
+        <v>940</v>
+      </c>
+      <c r="D147">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>296</v>
+      </c>
+      <c r="B148" t="s">
+        <v>297</v>
+      </c>
+      <c r="C148">
+        <v>940</v>
+      </c>
+      <c r="D148">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>298</v>
+      </c>
+      <c r="B149" t="s">
+        <v>299</v>
+      </c>
+      <c r="C149">
+        <v>940</v>
+      </c>
+      <c r="D149">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>300</v>
+      </c>
+      <c r="B150" t="s">
+        <v>301</v>
+      </c>
+      <c r="C150">
+        <v>940</v>
+      </c>
+      <c r="D150">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>302</v>
+      </c>
+      <c r="B151" t="s">
+        <v>303</v>
+      </c>
+      <c r="C151">
+        <v>940</v>
+      </c>
+      <c r="D151">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>304</v>
+      </c>
+      <c r="B152" t="s">
+        <v>305</v>
+      </c>
+      <c r="C152">
+        <v>950</v>
+      </c>
+      <c r="D152">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>306</v>
+      </c>
+      <c r="B153" t="s">
+        <v>307</v>
+      </c>
+      <c r="C153">
+        <v>950</v>
+      </c>
+      <c r="D153">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>308</v>
+      </c>
+      <c r="B154" t="s">
+        <v>309</v>
+      </c>
+      <c r="C154">
+        <v>950</v>
+      </c>
+      <c r="D154">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>310</v>
+      </c>
+      <c r="B155" t="s">
+        <v>311</v>
+      </c>
+      <c r="C155">
+        <v>950</v>
+      </c>
+      <c r="D155">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>312</v>
+      </c>
+      <c r="B156" t="s">
+        <v>313</v>
+      </c>
+      <c r="C156">
+        <v>950</v>
+      </c>
+      <c r="D156">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>314</v>
+      </c>
+      <c r="B157" t="s">
+        <v>315</v>
+      </c>
+      <c r="C157">
+        <v>960</v>
+      </c>
+      <c r="D157">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>316</v>
+      </c>
+      <c r="B158" t="s">
+        <v>317</v>
+      </c>
+      <c r="C158">
+        <v>960</v>
+      </c>
+      <c r="D158">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>318</v>
+      </c>
+      <c r="B159" t="s">
+        <v>319</v>
+      </c>
+      <c r="C159">
+        <v>970</v>
+      </c>
+      <c r="D159">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>320</v>
+      </c>
+      <c r="B160" t="s">
+        <v>321</v>
+      </c>
+      <c r="C160">
+        <v>970</v>
+      </c>
+      <c r="D160">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>322</v>
+      </c>
+      <c r="B161" t="s">
+        <v>323</v>
+      </c>
+      <c r="C161">
+        <v>980</v>
+      </c>
+      <c r="D161">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>324</v>
+      </c>
+      <c r="B162" t="s">
+        <v>325</v>
+      </c>
+      <c r="C162">
+        <v>980</v>
+      </c>
+      <c r="D162">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>326</v>
+      </c>
+      <c r="B163" t="s">
+        <v>327</v>
+      </c>
+      <c r="C163">
+        <v>980</v>
+      </c>
+      <c r="D163">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>328</v>
+      </c>
+      <c r="B164" t="s">
+        <v>329</v>
+      </c>
+      <c r="C164">
+        <v>980</v>
+      </c>
+      <c r="D164">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>330</v>
+      </c>
+      <c r="B165" t="s">
+        <v>331</v>
+      </c>
+      <c r="C165">
+        <v>980</v>
+      </c>
+      <c r="D165">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>332</v>
+      </c>
+      <c r="B166" t="s">
+        <v>333</v>
+      </c>
+      <c r="C166">
+        <v>980</v>
+      </c>
+      <c r="D166">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>334</v>
+      </c>
+      <c r="B167" t="s">
+        <v>335</v>
+      </c>
+      <c r="C167">
+        <v>980</v>
+      </c>
+      <c r="D167">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>336</v>
+      </c>
+      <c r="B168" t="s">
+        <v>337</v>
+      </c>
+      <c r="C168">
+        <v>980</v>
+      </c>
+      <c r="D168">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>338</v>
+      </c>
+      <c r="B169" t="s">
+        <v>339</v>
+      </c>
+      <c r="C169">
+        <v>980</v>
+      </c>
+      <c r="D169">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>340</v>
+      </c>
+      <c r="B170" t="s">
+        <v>341</v>
+      </c>
+      <c r="C170">
+        <v>990</v>
+      </c>
+      <c r="D170">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>342</v>
+      </c>
+      <c r="B171" t="s">
+        <v>343</v>
+      </c>
+      <c r="C171">
+        <v>990</v>
+      </c>
+      <c r="D171">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>344</v>
+      </c>
+      <c r="B172" t="s">
+        <v>345</v>
+      </c>
+      <c r="C172">
+        <v>990</v>
+      </c>
+      <c r="D172">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>346</v>
+      </c>
+      <c r="B173" t="s">
+        <v>347</v>
+      </c>
+      <c r="C173">
+        <v>990</v>
+      </c>
+      <c r="D173">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>348</v>
+      </c>
+      <c r="B174" t="s">
+        <v>349</v>
+      </c>
+      <c r="C174">
+        <v>990</v>
+      </c>
+      <c r="D174">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>350</v>
+      </c>
+      <c r="B175" t="s">
+        <v>351</v>
+      </c>
+      <c r="C175">
+        <v>1000</v>
+      </c>
+      <c r="D175">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>352</v>
+      </c>
+      <c r="B176" t="s">
+        <v>353</v>
+      </c>
+      <c r="C176">
+        <v>1000</v>
+      </c>
+      <c r="D176">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>354</v>
+      </c>
+      <c r="B177" t="s">
+        <v>355</v>
+      </c>
+      <c r="C177">
+        <v>1000</v>
+      </c>
+      <c r="D177">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>356</v>
+      </c>
+      <c r="B178" t="s">
+        <v>357</v>
+      </c>
+      <c r="C178">
+        <v>1000</v>
+      </c>
+      <c r="D178">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>358</v>
+      </c>
+      <c r="B179" t="s">
+        <v>359</v>
+      </c>
+      <c r="C179">
+        <v>1000</v>
+      </c>
+      <c r="D179">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>360</v>
+      </c>
+      <c r="B180" t="s">
+        <v>361</v>
+      </c>
+      <c r="C180">
+        <v>1000</v>
+      </c>
+      <c r="D180">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>362</v>
+      </c>
+      <c r="B181" t="s">
+        <v>363</v>
+      </c>
+      <c r="C181">
+        <v>1000</v>
+      </c>
+      <c r="D181">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>364</v>
+      </c>
+      <c r="B182" t="s">
+        <v>365</v>
+      </c>
+      <c r="C182">
+        <v>1010</v>
+      </c>
+      <c r="D182">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>366</v>
+      </c>
+      <c r="B183" t="s">
+        <v>367</v>
+      </c>
+      <c r="C183">
+        <v>1010</v>
+      </c>
+      <c r="D183">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>368</v>
+      </c>
+      <c r="B184" t="s">
+        <v>369</v>
+      </c>
+      <c r="C184">
+        <v>1010</v>
+      </c>
+      <c r="D184">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>370</v>
+      </c>
+      <c r="B185" t="s">
+        <v>371</v>
+      </c>
+      <c r="C185">
+        <v>1010</v>
+      </c>
+      <c r="D185">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>372</v>
+      </c>
+      <c r="B186" t="s">
+        <v>373</v>
+      </c>
+      <c r="C186">
+        <v>1010</v>
+      </c>
+      <c r="D186">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>374</v>
+      </c>
+      <c r="B187" t="s">
+        <v>375</v>
+      </c>
+      <c r="C187">
+        <v>1010</v>
+      </c>
+      <c r="D187">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>376</v>
+      </c>
+      <c r="B188" t="s">
+        <v>377</v>
+      </c>
+      <c r="C188">
+        <v>1010</v>
+      </c>
+      <c r="D188">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>378</v>
+      </c>
+      <c r="B189" t="s">
+        <v>379</v>
+      </c>
+      <c r="C189">
+        <v>1010</v>
+      </c>
+      <c r="D189">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>380</v>
+      </c>
+      <c r="B190" t="s">
+        <v>381</v>
+      </c>
+      <c r="C190">
+        <v>1010</v>
+      </c>
+      <c r="D190">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>382</v>
+      </c>
+      <c r="B191" t="s">
+        <v>383</v>
+      </c>
+      <c r="C191">
+        <v>1020</v>
+      </c>
+      <c r="D191">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>384</v>
+      </c>
+      <c r="B192" t="s">
+        <v>385</v>
+      </c>
+      <c r="C192">
+        <v>1020</v>
+      </c>
+      <c r="D192">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>386</v>
+      </c>
+      <c r="B193" t="s">
+        <v>387</v>
+      </c>
+      <c r="C193">
+        <v>1020</v>
+      </c>
+      <c r="D193">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>388</v>
+      </c>
+      <c r="B194" t="s">
+        <v>389</v>
+      </c>
+      <c r="C194">
+        <v>1020</v>
+      </c>
+      <c r="D194">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>390</v>
+      </c>
+      <c r="B195" t="s">
+        <v>391</v>
+      </c>
+      <c r="C195">
+        <v>1030</v>
+      </c>
+      <c r="D195">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>392</v>
+      </c>
+      <c r="B196" t="s">
+        <v>393</v>
+      </c>
+      <c r="C196">
+        <v>1030</v>
+      </c>
+      <c r="D196">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>394</v>
+      </c>
+      <c r="B197" t="s">
+        <v>395</v>
+      </c>
+      <c r="C197">
+        <v>1030</v>
+      </c>
+      <c r="D197">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>396</v>
+      </c>
+      <c r="B198" t="s">
+        <v>397</v>
+      </c>
+      <c r="C198">
+        <v>1030</v>
+      </c>
+      <c r="D198">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>398</v>
+      </c>
+      <c r="B199" t="s">
+        <v>399</v>
+      </c>
+      <c r="C199">
+        <v>1030</v>
+      </c>
+      <c r="D199">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>400</v>
+      </c>
+      <c r="B200" t="s">
+        <v>401</v>
+      </c>
+      <c r="C200">
+        <v>1040</v>
+      </c>
+      <c r="D200">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>402</v>
+      </c>
+      <c r="B201" t="s">
+        <v>403</v>
+      </c>
+      <c r="C201">
+        <v>1040</v>
+      </c>
+      <c r="D201">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>404</v>
+      </c>
+      <c r="B202" t="s">
+        <v>405</v>
+      </c>
+      <c r="C202">
+        <v>1040</v>
+      </c>
+      <c r="D202">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>406</v>
+      </c>
+      <c r="B203" t="s">
+        <v>407</v>
+      </c>
+      <c r="C203">
+        <v>1050</v>
+      </c>
+      <c r="D203">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>408</v>
+      </c>
+      <c r="B204" t="s">
+        <v>409</v>
+      </c>
+      <c r="C204">
+        <v>1050</v>
+      </c>
+      <c r="D204">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>410</v>
+      </c>
+      <c r="B205" t="s">
+        <v>411</v>
+      </c>
+      <c r="C205">
+        <v>1050</v>
+      </c>
+      <c r="D205">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>412</v>
+      </c>
+      <c r="B206" t="s">
+        <v>413</v>
+      </c>
+      <c r="C206">
+        <v>1050</v>
+      </c>
+      <c r="D206">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>414</v>
+      </c>
+      <c r="B207" t="s">
+        <v>415</v>
+      </c>
+      <c r="C207">
+        <v>1050</v>
+      </c>
+      <c r="D207">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>416</v>
+      </c>
+      <c r="B208" t="s">
+        <v>417</v>
+      </c>
+      <c r="C208">
+        <v>1050</v>
+      </c>
+      <c r="D208">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>418</v>
+      </c>
+      <c r="B209" t="s">
+        <v>419</v>
+      </c>
+      <c r="C209">
+        <v>1050</v>
+      </c>
+      <c r="D209">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>420</v>
+      </c>
+      <c r="B210" t="s">
+        <v>421</v>
+      </c>
+      <c r="C210">
+        <v>1060</v>
+      </c>
+      <c r="D210">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>422</v>
+      </c>
+      <c r="B211" t="s">
+        <v>423</v>
+      </c>
+      <c r="C211">
+        <v>1060</v>
+      </c>
+      <c r="D211">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>424</v>
+      </c>
+      <c r="B212" t="s">
+        <v>425</v>
+      </c>
+      <c r="C212">
+        <v>1060</v>
+      </c>
+      <c r="D212">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>426</v>
+      </c>
+      <c r="B213" t="s">
+        <v>427</v>
+      </c>
+      <c r="C213">
+        <v>1060</v>
+      </c>
+      <c r="D213">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>428</v>
+      </c>
+      <c r="B214" t="s">
+        <v>429</v>
+      </c>
+      <c r="C214">
+        <v>1060</v>
+      </c>
+      <c r="D214">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>430</v>
+      </c>
+      <c r="B215" t="s">
+        <v>431</v>
+      </c>
+      <c r="C215">
+        <v>1060</v>
+      </c>
+      <c r="D215">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>432</v>
+      </c>
+      <c r="B216" t="s">
+        <v>433</v>
+      </c>
+      <c r="C216">
+        <v>1060</v>
+      </c>
+      <c r="D216">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>434</v>
+      </c>
+      <c r="B217" t="s">
+        <v>435</v>
+      </c>
+      <c r="C217">
+        <v>1060</v>
+      </c>
+      <c r="D217">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>436</v>
+      </c>
+      <c r="B218" t="s">
+        <v>437</v>
+      </c>
+      <c r="C218">
+        <v>1060</v>
+      </c>
+      <c r="D218">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>438</v>
+      </c>
+      <c r="B219" t="s">
+        <v>439</v>
+      </c>
+      <c r="C219">
+        <v>1070</v>
+      </c>
+      <c r="D219">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>440</v>
+      </c>
+      <c r="B220" t="s">
+        <v>441</v>
+      </c>
+      <c r="C220">
+        <v>1070</v>
+      </c>
+      <c r="D220">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>442</v>
+      </c>
+      <c r="B221" t="s">
+        <v>443</v>
+      </c>
+      <c r="C221">
+        <v>1070</v>
+      </c>
+      <c r="D221">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>444</v>
+      </c>
+      <c r="B222" t="s">
+        <v>445</v>
+      </c>
+      <c r="C222">
+        <v>1070</v>
+      </c>
+      <c r="D222">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>446</v>
+      </c>
+      <c r="B223" t="s">
+        <v>447</v>
+      </c>
+      <c r="C223">
+        <v>1070</v>
+      </c>
+      <c r="D223">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>448</v>
+      </c>
+      <c r="B224" t="s">
+        <v>449</v>
+      </c>
+      <c r="C224">
+        <v>1070</v>
+      </c>
+      <c r="D224">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>450</v>
+      </c>
+      <c r="B225" t="s">
+        <v>451</v>
+      </c>
+      <c r="C225">
+        <v>1070</v>
+      </c>
+      <c r="D225">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>452</v>
+      </c>
+      <c r="B226" t="s">
+        <v>453</v>
+      </c>
+      <c r="C226">
+        <v>1070</v>
+      </c>
+      <c r="D226">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>454</v>
+      </c>
+      <c r="B227" t="s">
+        <v>455</v>
+      </c>
+      <c r="C227">
+        <v>1080</v>
+      </c>
+      <c r="D227">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>456</v>
+      </c>
+      <c r="B228" t="s">
+        <v>457</v>
+      </c>
+      <c r="C228">
+        <v>1080</v>
+      </c>
+      <c r="D228">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>458</v>
+      </c>
+      <c r="B229" t="s">
+        <v>459</v>
+      </c>
+      <c r="C229">
+        <v>1080</v>
+      </c>
+      <c r="D229">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>460</v>
+      </c>
+      <c r="B230" t="s">
+        <v>461</v>
+      </c>
+      <c r="C230">
+        <v>1080</v>
+      </c>
+      <c r="D230">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>462</v>
+      </c>
+      <c r="B231" t="s">
+        <v>463</v>
+      </c>
+      <c r="C231">
+        <v>1080</v>
+      </c>
+      <c r="D231">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>464</v>
+      </c>
+      <c r="B232" t="s">
+        <v>465</v>
+      </c>
+      <c r="C232">
+        <v>1080</v>
+      </c>
+      <c r="D232">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>466</v>
+      </c>
+      <c r="B233" t="s">
+        <v>467</v>
+      </c>
+      <c r="C233">
+        <v>1080</v>
+      </c>
+      <c r="D233">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>468</v>
+      </c>
+      <c r="B234" t="s">
+        <v>469</v>
+      </c>
+      <c r="C234">
+        <v>1080</v>
+      </c>
+      <c r="D234">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>470</v>
+      </c>
+      <c r="B235" t="s">
+        <v>471</v>
+      </c>
+      <c r="C235">
+        <v>1080</v>
+      </c>
+      <c r="D235">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>472</v>
+      </c>
+      <c r="B236" t="s">
+        <v>473</v>
+      </c>
+      <c r="C236">
+        <v>1080</v>
+      </c>
+      <c r="D236">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>474</v>
+      </c>
+      <c r="B237" t="s">
+        <v>475</v>
+      </c>
+      <c r="C237">
+        <v>1090</v>
+      </c>
+      <c r="D237">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>476</v>
+      </c>
+      <c r="B238" t="s">
+        <v>477</v>
+      </c>
+      <c r="C238">
+        <v>1090</v>
+      </c>
+      <c r="D238">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>478</v>
+      </c>
+      <c r="B239" t="s">
+        <v>479</v>
+      </c>
+      <c r="C239">
+        <v>1090</v>
+      </c>
+      <c r="D239">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>480</v>
+      </c>
+      <c r="B240" t="s">
+        <v>481</v>
+      </c>
+      <c r="C240">
+        <v>1090</v>
+      </c>
+      <c r="D240">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>482</v>
+      </c>
+      <c r="B241" t="s">
+        <v>483</v>
+      </c>
+      <c r="C241">
+        <v>1090</v>
+      </c>
+      <c r="D241">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>484</v>
+      </c>
+      <c r="B242" t="s">
+        <v>485</v>
+      </c>
+      <c r="C242">
+        <v>1100</v>
+      </c>
+      <c r="D242">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>486</v>
+      </c>
+      <c r="B243" t="s">
+        <v>487</v>
+      </c>
+      <c r="C243">
+        <v>1100</v>
+      </c>
+      <c r="D243">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>488</v>
+      </c>
+      <c r="B244" t="s">
+        <v>489</v>
+      </c>
+      <c r="C244">
+        <v>1100</v>
+      </c>
+      <c r="D244">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>490</v>
+      </c>
+      <c r="B245" t="s">
+        <v>491</v>
+      </c>
+      <c r="C245">
+        <v>1100</v>
+      </c>
+      <c r="D245">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>492</v>
+      </c>
+      <c r="B246" t="s">
+        <v>493</v>
+      </c>
+      <c r="C246">
+        <v>1100</v>
+      </c>
+      <c r="D246">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>494</v>
+      </c>
+      <c r="B247" t="s">
+        <v>495</v>
+      </c>
+      <c r="C247">
+        <v>1100</v>
+      </c>
+      <c r="D247">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>496</v>
+      </c>
+      <c r="B248" t="s">
+        <v>497</v>
+      </c>
+      <c r="C248">
+        <v>1100</v>
+      </c>
+      <c r="D248">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>498</v>
+      </c>
+      <c r="B249" t="s">
+        <v>499</v>
+      </c>
+      <c r="C249">
+        <v>1100</v>
+      </c>
+      <c r="D249">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>500</v>
+      </c>
+      <c r="B250" t="s">
+        <v>501</v>
+      </c>
+      <c r="C250">
+        <v>1100</v>
+      </c>
+      <c r="D250">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>64</v>
+      </c>
+      <c r="B251" t="s">
+        <v>65</v>
+      </c>
+      <c r="C251">
+        <v>1110</v>
+      </c>
+      <c r="D251">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>502</v>
+      </c>
+      <c r="B252" t="s">
+        <v>503</v>
+      </c>
+      <c r="C252">
+        <v>1110</v>
+      </c>
+      <c r="D252">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>504</v>
+      </c>
+      <c r="B253" t="s">
+        <v>505</v>
+      </c>
+      <c r="C253">
+        <v>1110</v>
+      </c>
+      <c r="D253">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>506</v>
+      </c>
+      <c r="B254" t="s">
+        <v>507</v>
+      </c>
+      <c r="C254">
+        <v>1110</v>
+      </c>
+      <c r="D254">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>508</v>
+      </c>
+      <c r="B255" t="s">
+        <v>509</v>
+      </c>
+      <c r="C255">
+        <v>1120</v>
+      </c>
+      <c r="D255">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>510</v>
+      </c>
+      <c r="B256" t="s">
+        <v>511</v>
+      </c>
+      <c r="C256">
+        <v>1120</v>
+      </c>
+      <c r="D256">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>512</v>
+      </c>
+      <c r="B257" t="s">
+        <v>513</v>
+      </c>
+      <c r="C257">
+        <v>1120</v>
+      </c>
+      <c r="D257">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>514</v>
+      </c>
+      <c r="B258" t="s">
+        <v>515</v>
+      </c>
+      <c r="C258">
+        <v>1120</v>
+      </c>
+      <c r="D258">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>516</v>
+      </c>
+      <c r="B259" t="s">
+        <v>517</v>
+      </c>
+      <c r="C259">
+        <v>1120</v>
+      </c>
+      <c r="D259">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>518</v>
+      </c>
+      <c r="B260" t="s">
+        <v>519</v>
+      </c>
+      <c r="C260">
+        <v>1130</v>
+      </c>
+      <c r="D260">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>520</v>
+      </c>
+      <c r="B261" t="s">
+        <v>521</v>
+      </c>
+      <c r="C261">
+        <v>1130</v>
+      </c>
+      <c r="D261">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>522</v>
+      </c>
+      <c r="B262" t="s">
+        <v>523</v>
+      </c>
+      <c r="C262">
+        <v>1130</v>
+      </c>
+      <c r="D262">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>524</v>
+      </c>
+      <c r="B263" t="s">
+        <v>525</v>
+      </c>
+      <c r="C263">
+        <v>1130</v>
+      </c>
+      <c r="D263">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>526</v>
+      </c>
+      <c r="B264" t="s">
+        <v>527</v>
+      </c>
+      <c r="C264">
+        <v>1140</v>
+      </c>
+      <c r="D264">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>528</v>
+      </c>
+      <c r="B265" t="s">
+        <v>529</v>
+      </c>
+      <c r="C265">
+        <v>1140</v>
+      </c>
+      <c r="D265">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>530</v>
+      </c>
+      <c r="B266" t="s">
+        <v>531</v>
+      </c>
+      <c r="C266">
+        <v>1140</v>
+      </c>
+      <c r="D266">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>532</v>
+      </c>
+      <c r="B267" t="s">
+        <v>533</v>
+      </c>
+      <c r="C267">
+        <v>1150</v>
+      </c>
+      <c r="D267">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>534</v>
+      </c>
+      <c r="B268" t="s">
+        <v>535</v>
+      </c>
+      <c r="C268">
+        <v>1150</v>
+      </c>
+      <c r="D268">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>536</v>
+      </c>
+      <c r="B269" t="s">
+        <v>537</v>
+      </c>
+      <c r="C269">
+        <v>1150</v>
+      </c>
+      <c r="D269">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>538</v>
+      </c>
+      <c r="B270" t="s">
+        <v>539</v>
+      </c>
+      <c r="C270">
+        <v>1150</v>
+      </c>
+      <c r="D270">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>540</v>
+      </c>
+      <c r="B271" t="s">
+        <v>541</v>
+      </c>
+      <c r="C271">
+        <v>1160</v>
+      </c>
+      <c r="D271">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>542</v>
+      </c>
+      <c r="B272" t="s">
+        <v>543</v>
+      </c>
+      <c r="C272">
+        <v>1160</v>
+      </c>
+      <c r="D272">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>544</v>
+      </c>
+      <c r="B273" t="s">
+        <v>545</v>
+      </c>
+      <c r="C273">
+        <v>1160</v>
+      </c>
+      <c r="D273">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>546</v>
+      </c>
+      <c r="B274" t="s">
+        <v>547</v>
+      </c>
+      <c r="C274">
+        <v>1170</v>
+      </c>
+      <c r="D274">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>548</v>
+      </c>
+      <c r="B275" t="s">
+        <v>549</v>
+      </c>
+      <c r="C275">
+        <v>1170</v>
+      </c>
+      <c r="D275">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>550</v>
+      </c>
+      <c r="B276" t="s">
+        <v>551</v>
+      </c>
+      <c r="C276">
+        <v>1170</v>
+      </c>
+      <c r="D276">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>552</v>
+      </c>
+      <c r="B277" t="s">
+        <v>553</v>
+      </c>
+      <c r="C277">
+        <v>1170</v>
+      </c>
+      <c r="D277">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>554</v>
+      </c>
+      <c r="B278" t="s">
+        <v>555</v>
+      </c>
+      <c r="C278">
+        <v>1180</v>
+      </c>
+      <c r="D278">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>556</v>
+      </c>
+      <c r="B279" t="s">
+        <v>557</v>
+      </c>
+      <c r="C279">
+        <v>1190</v>
+      </c>
+      <c r="D279">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>558</v>
+      </c>
+      <c r="B280" t="s">
+        <v>559</v>
+      </c>
+      <c r="C280">
+        <v>1190</v>
+      </c>
+      <c r="D280">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>560</v>
+      </c>
+      <c r="B281" t="s">
+        <v>561</v>
+      </c>
+      <c r="C281">
+        <v>1190</v>
+      </c>
+      <c r="D281">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>562</v>
+      </c>
+      <c r="B282" t="s">
+        <v>563</v>
+      </c>
+      <c r="C282">
+        <v>1190</v>
+      </c>
+      <c r="D282">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>564</v>
+      </c>
+      <c r="B283" t="s">
+        <v>565</v>
+      </c>
+      <c r="C283">
+        <v>1200</v>
+      </c>
+      <c r="D283">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>566</v>
+      </c>
+      <c r="B284" t="s">
+        <v>567</v>
+      </c>
+      <c r="C284">
+        <v>1200</v>
+      </c>
+      <c r="D284">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>568</v>
+      </c>
+      <c r="B285" t="s">
+        <v>569</v>
+      </c>
+      <c r="C285">
+        <v>1200</v>
+      </c>
+      <c r="D285">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>570</v>
+      </c>
+      <c r="B286" t="s">
+        <v>571</v>
+      </c>
+      <c r="C286">
+        <v>1200</v>
+      </c>
+      <c r="D286">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>572</v>
+      </c>
+      <c r="B287" t="s">
+        <v>573</v>
+      </c>
+      <c r="C287">
+        <v>1210</v>
+      </c>
+      <c r="D287">
+        <v>220</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Result/coordinates.xlsx
+++ b/Result/coordinates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
     <t>Location</t>
   </si>
@@ -26,18 +26,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>Port Angeles, WA</t>
-  </si>
-  <si>
-    <t>Population: 71,404</t>
-  </si>
-  <si>
-    <t>Aberdeen, WA</t>
-  </si>
-  <si>
-    <t>Population: 72,797</t>
   </si>
 </sst>
 </file>
@@ -373,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -395,118 +383,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>110</v>
-      </c>
-      <c r="D2" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>110</v>
-      </c>
-      <c r="D3" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>110</v>
-      </c>
-      <c r="D4" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="n">
-        <v>110</v>
-      </c>
-      <c r="D5" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="n">
-        <v>110</v>
-      </c>
-      <c r="D6" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="n">
-        <v>110</v>
-      </c>
-      <c r="D7" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>110</v>
-      </c>
-      <c r="D8" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>110</v>
-      </c>
-      <c r="D9" t="n">
-        <v>100</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
